--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE48816A-486F-4C43-A18C-96E1C1D24E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0A90EA-7A67-45BA-933C-342EA198C62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="3570" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="3570" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_testSal" sheetId="2" r:id="rId1"/>
